--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>562.7615104664737</v>
+        <v>610.5931529960325</v>
       </c>
       <c r="R2">
-        <v>562.7615104664737</v>
+        <v>2442.37261198413</v>
       </c>
       <c r="S2">
-        <v>0.003699504317360498</v>
+        <v>0.003088746983942204</v>
       </c>
       <c r="T2">
-        <v>0.003699504317360498</v>
+        <v>0.001490024150176342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>2170.273684744182</v>
+        <v>2373.034914985561</v>
       </c>
       <c r="R3">
-        <v>2170.273684744182</v>
+        <v>14238.20948991337</v>
       </c>
       <c r="S3">
-        <v>0.01426703269011731</v>
+        <v>0.01200423620947289</v>
       </c>
       <c r="T3">
-        <v>0.01426703269011731</v>
+        <v>0.008686338804792802</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>3114.775834615541</v>
+        <v>3266.084616033193</v>
       </c>
       <c r="R4">
-        <v>3114.775834615541</v>
+        <v>19596.50769619916</v>
       </c>
       <c r="S4">
-        <v>0.02047603902089681</v>
+        <v>0.01652181810027291</v>
       </c>
       <c r="T4">
-        <v>0.02047603902089681</v>
+        <v>0.01195528871523517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>3104.275393600426</v>
+        <v>3232.134773444281</v>
       </c>
       <c r="R5">
-        <v>3104.275393600426</v>
+        <v>19392.80864066568</v>
       </c>
       <c r="S5">
-        <v>0.02040701079820011</v>
+        <v>0.01635007940096506</v>
       </c>
       <c r="T5">
-        <v>0.02040701079820011</v>
+        <v>0.01183101754112205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>423.2329999781629</v>
+        <v>477.6585770124661</v>
       </c>
       <c r="R6">
-        <v>423.2329999781629</v>
+        <v>2865.951462074796</v>
       </c>
       <c r="S6">
-        <v>0.00278226616701415</v>
+        <v>0.002416284037680596</v>
       </c>
       <c r="T6">
-        <v>0.00278226616701415</v>
+        <v>0.001748437920885264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>1014.215753545852</v>
+        <v>1047.236966099169</v>
       </c>
       <c r="R7">
-        <v>1014.215753545852</v>
+        <v>4188.947864396676</v>
       </c>
       <c r="S7">
-        <v>0.00666729243062091</v>
+        <v>0.005297553705998746</v>
       </c>
       <c r="T7">
-        <v>0.00666729243062091</v>
+        <v>0.002555561526998166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>4711.550701921089</v>
+        <v>5252.169701667934</v>
       </c>
       <c r="R8">
-        <v>4711.550701921089</v>
+        <v>31513.0182100076</v>
       </c>
       <c r="S8">
-        <v>0.03097298205197415</v>
+        <v>0.02656862961135246</v>
       </c>
       <c r="T8">
-        <v>0.03097298205197415</v>
+        <v>0.01922522302594641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>18169.9606539216</v>
+        <v>20412.25326607666</v>
       </c>
       <c r="R9">
-        <v>18169.9606539216</v>
+        <v>183710.2793946899</v>
       </c>
       <c r="S9">
-        <v>0.1194464202602177</v>
+        <v>0.1032574397562371</v>
       </c>
       <c r="T9">
-        <v>0.1194464202602177</v>
+        <v>0.1120765732429978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>26077.51951220904</v>
+        <v>28094.04360209841</v>
       </c>
       <c r="R10">
-        <v>26077.51951220904</v>
+        <v>252846.3924188857</v>
       </c>
       <c r="S10">
-        <v>0.1714294496464455</v>
+        <v>0.1421165501397066</v>
       </c>
       <c r="T10">
-        <v>0.1714294496464455</v>
+        <v>0.1542546084657586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>25989.60774263148</v>
+        <v>27802.0155409468</v>
       </c>
       <c r="R11">
-        <v>25989.60774263148</v>
+        <v>250218.1398685212</v>
       </c>
       <c r="S11">
-        <v>0.1708515317095393</v>
+        <v>0.1406392967694672</v>
       </c>
       <c r="T11">
-        <v>0.1708515317095393</v>
+        <v>0.1526511840932488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>3543.390407901889</v>
+        <v>4108.699702276214</v>
       </c>
       <c r="R12">
-        <v>3543.390407901889</v>
+        <v>36978.29732048592</v>
       </c>
       <c r="S12">
-        <v>0.02329368279159839</v>
+        <v>0.02078427141061038</v>
       </c>
       <c r="T12">
-        <v>0.02329368279159839</v>
+        <v>0.02255943903463784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>8491.21494033495</v>
+        <v>9008.070655270587</v>
       </c>
       <c r="R13">
-        <v>8491.21494033495</v>
+        <v>54048.42393162352</v>
       </c>
       <c r="S13">
-        <v>0.05581989128106256</v>
+        <v>0.04556823300602272</v>
       </c>
       <c r="T13">
-        <v>0.05581989128106256</v>
+        <v>0.03297345234790543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>1776.31830452994</v>
+        <v>3654.849623175217</v>
       </c>
       <c r="R14">
-        <v>1776.31830452994</v>
+        <v>21929.0977390513</v>
       </c>
       <c r="S14">
-        <v>0.01167723292086531</v>
+        <v>0.01848842505840891</v>
       </c>
       <c r="T14">
-        <v>0.01167723292086531</v>
+        <v>0.01337833754867547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>6850.320784829856</v>
+        <v>14204.36132023408</v>
       </c>
       <c r="R15">
-        <v>6850.320784829856</v>
+        <v>127839.2518821067</v>
       </c>
       <c r="S15">
-        <v>0.04503291509359931</v>
+        <v>0.07185419288018675</v>
       </c>
       <c r="T15">
-        <v>0.04503291509359931</v>
+        <v>0.07799120073250032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>9831.577367380603</v>
+        <v>19549.92136678096</v>
       </c>
       <c r="R16">
-        <v>9831.577367380603</v>
+        <v>175949.2923010286</v>
       </c>
       <c r="S16">
-        <v>0.06463121986956702</v>
+        <v>0.09889524696053099</v>
       </c>
       <c r="T16">
-        <v>0.06463121986956702</v>
+        <v>0.1073418091279647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>9798.433441874176</v>
+        <v>19346.70656035198</v>
       </c>
       <c r="R17">
-        <v>9798.433441874176</v>
+        <v>174120.3590431678</v>
       </c>
       <c r="S17">
-        <v>0.06441333699516136</v>
+        <v>0.09786726438756892</v>
       </c>
       <c r="T17">
-        <v>0.06441333699516136</v>
+        <v>0.106226027404119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>1335.906082701294</v>
+        <v>2859.138301231108</v>
       </c>
       <c r="R18">
-        <v>1335.906082701294</v>
+        <v>25732.24471107997</v>
       </c>
       <c r="S18">
-        <v>0.008782033292299967</v>
+        <v>0.0144632391655047</v>
       </c>
       <c r="T18">
-        <v>0.008782033292299967</v>
+        <v>0.01569853259474961</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>3201.30281524193</v>
+        <v>6268.484361709794</v>
       </c>
       <c r="R19">
-        <v>3201.30281524193</v>
+        <v>37610.90617025876</v>
       </c>
       <c r="S19">
-        <v>0.02104485357633816</v>
+        <v>0.03170975971662394</v>
       </c>
       <c r="T19">
-        <v>0.02104485357633816</v>
+        <v>0.02294537624141443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>560.6459684312284</v>
+        <v>730.54352574301</v>
       </c>
       <c r="R20">
-        <v>560.6459684312284</v>
+        <v>4383.26115445806</v>
       </c>
       <c r="S20">
-        <v>0.003685597081795542</v>
+        <v>0.00369552802992517</v>
       </c>
       <c r="T20">
-        <v>0.003685597081795542</v>
+        <v>0.002674106704532102</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>2162.115157334841</v>
+        <v>2839.215089455942</v>
       </c>
       <c r="R21">
-        <v>2162.115157334841</v>
+        <v>25552.93580510348</v>
       </c>
       <c r="S21">
-        <v>0.01421339983354696</v>
+        <v>0.01436245559140297</v>
       </c>
       <c r="T21">
-        <v>0.01421339983354696</v>
+        <v>0.01558914117800357</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>3103.066719677966</v>
+        <v>3907.703450430598</v>
       </c>
       <c r="R22">
-        <v>3103.066719677966</v>
+        <v>35169.33105387539</v>
       </c>
       <c r="S22">
-        <v>0.02039906516881491</v>
+        <v>0.01976751161953576</v>
       </c>
       <c r="T22">
-        <v>0.02039906516881491</v>
+        <v>0.02145583862130273</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>3092.605752087993</v>
+        <v>3867.084197526061</v>
       </c>
       <c r="R23">
-        <v>3092.605752087993</v>
+        <v>34803.75777773455</v>
       </c>
       <c r="S23">
-        <v>0.02033029643811264</v>
+        <v>0.01956203503617865</v>
       </c>
       <c r="T23">
-        <v>0.02033029643811264</v>
+        <v>0.02123281245099761</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>421.641975742311</v>
+        <v>571.4940942915281</v>
       </c>
       <c r="R24">
-        <v>421.641975742311</v>
+        <v>5143.446848623753</v>
       </c>
       <c r="S24">
-        <v>0.002771807027716083</v>
+        <v>0.002890960456111123</v>
       </c>
       <c r="T24">
-        <v>0.002771807027716083</v>
+        <v>0.003137875024471324</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>1010.403097528109</v>
+        <v>1252.965549562052</v>
       </c>
       <c r="R25">
-        <v>1010.403097528109</v>
+        <v>7517.793297372312</v>
       </c>
       <c r="S25">
-        <v>0.006642228638702091</v>
+        <v>0.006338252473359164</v>
       </c>
       <c r="T25">
-        <v>0.006642228638702091</v>
+        <v>0.004586398289169551</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>319.0883110045104</v>
+        <v>342.239477464955</v>
       </c>
       <c r="R26">
-        <v>319.0883110045104</v>
+        <v>2053.43686478973</v>
       </c>
       <c r="S26">
-        <v>0.002097635609802034</v>
+        <v>0.001731252878645864</v>
       </c>
       <c r="T26">
-        <v>0.002097635609802034</v>
+        <v>0.001252745180807396</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>1230.554953746809</v>
+        <v>1330.093901848961</v>
       </c>
       <c r="R27">
-        <v>1230.554953746809</v>
+        <v>11970.84511664065</v>
       </c>
       <c r="S27">
-        <v>0.008089471791278233</v>
+        <v>0.006728414014368403</v>
       </c>
       <c r="T27">
-        <v>0.008089471791278233</v>
+        <v>0.007303082352911269</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>1766.091926580589</v>
+        <v>1830.651206720609</v>
       </c>
       <c r="R28">
-        <v>1766.091926580589</v>
+        <v>16475.86086048548</v>
       </c>
       <c r="S28">
-        <v>0.01161000634500509</v>
+        <v>0.009260533574055943</v>
       </c>
       <c r="T28">
-        <v>0.01161000634500509</v>
+        <v>0.01005146817345168</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>1760.138129233045</v>
+        <v>1811.622207900961</v>
       </c>
       <c r="R29">
-        <v>1760.138129233045</v>
+        <v>16304.59987110864</v>
       </c>
       <c r="S29">
-        <v>0.01157086703184618</v>
+        <v>0.009164273466284949</v>
       </c>
       <c r="T29">
-        <v>0.01157086703184618</v>
+        <v>0.009946986568596446</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>239.9750171479601</v>
+        <v>267.729208886924</v>
       </c>
       <c r="R30">
-        <v>239.9750171479601</v>
+        <v>2409.562879982316</v>
       </c>
       <c r="S30">
-        <v>0.001577557447490765</v>
+        <v>0.001354335177859572</v>
       </c>
       <c r="T30">
-        <v>0.001577557447490765</v>
+        <v>0.001470007837839872</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>575.0649000939314</v>
+        <v>586.9797758149659</v>
       </c>
       <c r="R31">
-        <v>575.0649000939314</v>
+        <v>3521.878654889796</v>
       </c>
       <c r="S31">
-        <v>0.00378038483636973</v>
+        <v>0.002969296336336951</v>
       </c>
       <c r="T31">
-        <v>0.00378038483636973</v>
+        <v>0.002148601005443336</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>309.2918929234779</v>
+        <v>375.9695884416851</v>
       </c>
       <c r="R32">
-        <v>309.2918929234779</v>
+        <v>1503.87835376674</v>
       </c>
       <c r="S32">
-        <v>0.002033235521467266</v>
+        <v>0.001901880043454716</v>
       </c>
       <c r="T32">
-        <v>0.002033235521467266</v>
+        <v>0.0009174746945018739</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>1192.775347340547</v>
+        <v>1461.184024038127</v>
       </c>
       <c r="R33">
-        <v>1192.775347340547</v>
+        <v>8767.104144228762</v>
       </c>
       <c r="S33">
-        <v>0.007841114690785887</v>
+        <v>0.007391546605275515</v>
       </c>
       <c r="T33">
-        <v>0.007841114690785887</v>
+        <v>0.005348568370736722</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>1711.870652138245</v>
+        <v>2011.074776846863</v>
       </c>
       <c r="R34">
-        <v>1711.870652138245</v>
+        <v>12066.44866108118</v>
       </c>
       <c r="S34">
-        <v>0.01125356434397704</v>
+        <v>0.01017322438187962</v>
       </c>
       <c r="T34">
-        <v>0.01125356434397704</v>
+        <v>0.007361407437855257</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>1706.099643962146</v>
+        <v>1990.170336167856</v>
       </c>
       <c r="R35">
-        <v>1706.099643962146</v>
+        <v>11941.02201700714</v>
       </c>
       <c r="S35">
-        <v>0.01121562665764645</v>
+        <v>0.01006747716250537</v>
       </c>
       <c r="T35">
-        <v>0.01121562665764645</v>
+        <v>0.007284888102587216</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>232.6074780814754</v>
+        <v>294.1158081020681</v>
       </c>
       <c r="R36">
-        <v>232.6074780814754</v>
+        <v>1764.694848612408</v>
       </c>
       <c r="S36">
-        <v>0.001529124421994424</v>
+        <v>0.001487814448536552</v>
       </c>
       <c r="T36">
-        <v>0.001529124421994424</v>
+        <v>0.00107659164257831</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>557.4096742810131</v>
+        <v>644.830766957162</v>
       </c>
       <c r="R37">
-        <v>557.4096742810131</v>
+        <v>2579.323067828648</v>
       </c>
       <c r="S37">
-        <v>0.003664322200769926</v>
+        <v>0.003261941403730438</v>
       </c>
       <c r="T37">
-        <v>0.003664322200769926</v>
+        <v>0.001573573845085596</v>
       </c>
     </row>
   </sheetData>
